--- a/public/upload/export_excel/ใบสรุปบิล-06-2025.xlsx
+++ b/public/upload/export_excel/ใบสรุปบิล-06-2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>สาขาเจริญใจ</t>
   </si>
@@ -38,58 +38,49 @@
     <t>A101</t>
   </si>
   <si>
-    <t>บริษัท วรเวก3 ชึรัมย์3</t>
-  </si>
-  <si>
-    <t>4,465</t>
+    <t>นางสาว Orange Test</t>
+  </si>
+  <si>
+    <t>5,495</t>
   </si>
   <si>
     <t>ชำระเงิน</t>
   </si>
   <si>
-    <t>3,465</t>
+    <t>บริษัท วรเวก ชึรัมย์</t>
   </si>
   <si>
     <t>A102</t>
   </si>
   <si>
+    <t>นาย กอล์ฟ เทส</t>
+  </si>
+  <si>
+    <t>5,465</t>
+  </si>
+  <si>
     <t>A103</t>
   </si>
   <si>
-    <t>บริษัท วรเวก ชึรัมย์</t>
-  </si>
-  <si>
-    <t>4,065</t>
-  </si>
-  <si>
     <t>A104</t>
   </si>
   <si>
+    <t>6,715</t>
+  </si>
+  <si>
     <t>A105</t>
   </si>
   <si>
-    <t>ไม่สมบูรณ์</t>
-  </si>
-  <si>
-    <t>A106</t>
-  </si>
-  <si>
-    <t>ค้างชำระ</t>
+    <t>นาย กู ชึรัมย์</t>
+  </si>
+  <si>
+    <t>5,665</t>
+  </si>
+  <si>
+    <t>ชำระเงิน(โดยพนักงาน)</t>
   </si>
   <si>
     <t>A107</t>
-  </si>
-  <si>
-    <t>A201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัท wolverine </t>
-  </si>
-  <si>
-    <t>A202</t>
-  </si>
-  <si>
-    <t>A204</t>
   </si>
 </sst>
 </file>
@@ -432,10 +423,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:D15"/>
+      <selection activeCell="A1" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -503,10 +494,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -514,13 +505,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -531,10 +522,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -542,100 +533,30 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
